--- a/classes/grammar.xlsx
+++ b/classes/grammar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-45" windowWidth="4920" windowHeight="7680" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="-45" windowWidth="4920" windowHeight="7680" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="rule" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="906">
   <si>
     <t>名称为中文开头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1109,10 +1109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>介绍下刘德华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>他有什么爱好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1325,10 +1321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>百科日本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>它的景点是什么啊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1341,10 +1333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>百科上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>它漂亮吗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1373,10 +1361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你去过欧洲吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>想去武汉玩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1385,10 +1369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你听过周杰伦唱的歌吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>那天武汉有雨吗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1449,10 +1429,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>毛泽东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1461,15 +1437,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欧洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杨浦区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周杰伦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4057,18 +4025,6 @@
   </si>
   <si>
     <t>人物</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍下人物</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍下&lt;人物&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍下王力宏</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -5152,6 +5108,46 @@
   </si>
   <si>
     <t>删除被grammar引用的slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说说看张三</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>说说看&lt;人物&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>说说看xx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>说说看刘德华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘德华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你去过非洲吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科澳大利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳大利亚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5636,7 +5632,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5664,7 +5660,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5683,63 +5679,63 @@
     </row>
     <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>69</v>
@@ -5748,7 +5744,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5776,7 +5772,7 @@
         <v>71</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5795,7 +5791,7 @@
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>69</v>
@@ -5804,7 +5800,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5818,21 +5814,21 @@
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5860,26 +5856,26 @@
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>69</v>
@@ -5888,7 +5884,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5902,21 +5898,21 @@
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5935,7 +5931,7 @@
     </row>
     <row r="24" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>69</v>
@@ -5949,7 +5945,7 @@
     </row>
     <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>69</v>
@@ -5958,7 +5954,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6014,7 +6010,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -6061,16 +6057,16 @@
     </row>
     <row r="33" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6081,24 +6077,24 @@
         <v>56</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -6112,7 +6108,7 @@
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -6181,8 +6177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6212,108 +6208,108 @@
         <v>196</v>
       </c>
       <c r="B2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C2" t="s">
         <v>197</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
         <v>210</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>211</v>
-      </c>
-      <c r="D3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" t="s">
         <v>213</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>214</v>
-      </c>
-      <c r="D4" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" t="s">
         <v>216</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>217</v>
-      </c>
-      <c r="D5" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
         <v>219</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>220</v>
-      </c>
-      <c r="D6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
         <v>222</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>223</v>
-      </c>
-      <c r="D7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" t="s">
         <v>225</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>226</v>
-      </c>
-      <c r="D8" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" t="s">
         <v>228</v>
-      </c>
-      <c r="C9" t="s">
-        <v>229</v>
       </c>
       <c r="D9" s="9">
         <v>3</v>
@@ -6321,13 +6317,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10" s="9">
         <v>5.5</v>
@@ -6335,296 +6331,296 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="B11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" t="s">
         <v>231</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="B12" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="C12" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" t="s">
         <v>234</v>
       </c>
-      <c r="B13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C13" t="s">
-        <v>235</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" t="s">
         <v>237</v>
       </c>
-      <c r="B14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" t="s">
-        <v>238</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" t="s">
         <v>241</v>
       </c>
-      <c r="C15" t="s">
-        <v>242</v>
-      </c>
       <c r="D15" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" t="s">
         <v>239</v>
       </c>
-      <c r="C16" t="s">
-        <v>240</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" t="s">
         <v>243</v>
       </c>
-      <c r="B17" t="s">
-        <v>244</v>
-      </c>
       <c r="C17" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" t="s">
         <v>245</v>
       </c>
-      <c r="C18" t="s">
-        <v>246</v>
-      </c>
       <c r="D18" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" t="s">
         <v>247</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>248</v>
       </c>
-      <c r="C19" t="s">
-        <v>249</v>
-      </c>
       <c r="D19" s="8" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>251</v>
+        <v>904</v>
       </c>
       <c r="C20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>282</v>
+        <v>905</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B21" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B22" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" t="s">
+        <v>901</v>
+      </c>
+      <c r="C23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="B23" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C24" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C25" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C26" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C27" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s">
+        <v>902</v>
+      </c>
+      <c r="C28" t="s">
         <v>263</v>
       </c>
-      <c r="C28" t="s">
-        <v>268</v>
-      </c>
       <c r="D28" s="8" t="s">
-        <v>285</v>
+        <v>903</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C29" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C30" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s">
-        <v>266</v>
+        <v>899</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>287</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -6638,8 +6634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6652,324 +6648,324 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>761</v>
+        <v>897</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>762</v>
+        <v>896</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="13" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -7025,7 +7021,7 @@
     </row>
     <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>55</v>
@@ -7034,7 +7030,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -7076,68 +7072,68 @@
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>55</v>
@@ -7146,35 +7142,35 @@
         <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -7207,7 +7203,7 @@
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>69</v>
@@ -7216,12 +7212,12 @@
         <v>12</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>55</v>
@@ -7230,12 +7226,12 @@
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>60</v>
@@ -7244,12 +7240,12 @@
         <v>12</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>55</v>
@@ -7258,12 +7254,12 @@
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>55</v>
@@ -7272,12 +7268,12 @@
         <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>55</v>
@@ -7286,7 +7282,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -7353,10 +7349,10 @@
         <v>57</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -7370,7 +7366,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -7384,7 +7380,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -7398,21 +7394,21 @@
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -7468,7 +7464,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -7580,7 +7576,7 @@
     </row>
     <row r="3" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>60</v>
@@ -7589,7 +7585,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -7636,58 +7632,58 @@
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -7701,12 +7697,12 @@
         <v>29</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>60</v>
@@ -7720,7 +7716,7 @@
     </row>
     <row r="13" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>60</v>
@@ -7734,7 +7730,7 @@
     </row>
     <row r="14" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>60</v>
@@ -7832,7 +7828,7 @@
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>60</v>
@@ -7841,12 +7837,12 @@
         <v>61</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>60</v>
@@ -7855,12 +7851,12 @@
         <v>13</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>60</v>
@@ -7869,12 +7865,12 @@
         <v>13</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>60</v>
@@ -7883,12 +7879,12 @@
         <v>13</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>60</v>
@@ -7897,12 +7893,12 @@
         <v>13</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>60</v>
@@ -7911,7 +7907,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -7944,44 +7940,44 @@
     </row>
     <row r="29" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8042,7 +8038,7 @@
     </row>
     <row r="36" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>60</v>
@@ -8065,7 +8061,7 @@
         <v>12</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -8079,7 +8075,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8093,7 +8089,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -8178,21 +8174,21 @@
     </row>
     <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>78</v>
@@ -8201,26 +8197,26 @@
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>78</v>
@@ -8229,21 +8225,21 @@
         <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -8262,7 +8258,7 @@
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>78</v>
@@ -8276,44 +8272,44 @@
     </row>
     <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -8374,7 +8370,7 @@
     </row>
     <row r="19" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>78</v>
@@ -8388,7 +8384,7 @@
     </row>
     <row r="20" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>56</v>
@@ -8397,7 +8393,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8411,12 +8407,12 @@
         <v>12</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>56</v>
@@ -8425,7 +8421,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -8439,12 +8435,12 @@
         <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>56</v>
@@ -8453,12 +8449,12 @@
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>56</v>
@@ -8467,7 +8463,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8486,7 +8482,7 @@
     </row>
     <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>78</v>
@@ -8509,12 +8505,12 @@
         <v>12</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>56</v>
@@ -8523,7 +8519,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8537,12 +8533,12 @@
         <v>12</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>56</v>
@@ -8551,7 +8547,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8565,12 +8561,12 @@
         <v>12</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -8579,7 +8575,7 @@
         <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8593,12 +8589,12 @@
         <v>12</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>56</v>
@@ -8607,12 +8603,12 @@
         <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>78</v>
@@ -8626,7 +8622,7 @@
     </row>
     <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>56</v>
@@ -8640,7 +8636,7 @@
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>78</v>
@@ -8654,7 +8650,7 @@
     </row>
     <row r="39" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>56</v>
@@ -8668,7 +8664,7 @@
     </row>
     <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>56</v>
@@ -8677,12 +8673,12 @@
         <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>56</v>
@@ -8691,12 +8687,12 @@
         <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>56</v>
@@ -8705,7 +8701,7 @@
         <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8719,7 +8715,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -8733,12 +8729,12 @@
         <v>12</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>56</v>
@@ -8747,12 +8743,12 @@
         <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>56</v>
@@ -8761,12 +8757,12 @@
         <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>56</v>
@@ -8775,12 +8771,12 @@
         <v>173</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>56</v>
@@ -8789,12 +8785,12 @@
         <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>78</v>
@@ -8803,7 +8799,7 @@
         <v>29</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -8831,12 +8827,12 @@
         <v>29</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>78</v>
@@ -8845,12 +8841,12 @@
         <v>29</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>78</v>
@@ -8873,7 +8869,7 @@
         <v>29</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -8892,7 +8888,7 @@
     </row>
     <row r="56" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>78</v>
@@ -8901,7 +8897,7 @@
         <v>29</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -8920,7 +8916,7 @@
     </row>
     <row r="58" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
@@ -8929,12 +8925,12 @@
         <v>83</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>56</v>
@@ -8943,12 +8939,12 @@
         <v>12</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>78</v>
@@ -8962,7 +8958,7 @@
     </row>
     <row r="61" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>78</v>
@@ -8971,12 +8967,12 @@
         <v>29</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>78</v>
@@ -8985,12 +8981,12 @@
         <v>29</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>56</v>
@@ -8999,12 +8995,12 @@
         <v>12</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>56</v>
@@ -9013,12 +9009,12 @@
         <v>12</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>56</v>
@@ -9027,12 +9023,12 @@
         <v>12</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>56</v>
@@ -9041,7 +9037,7 @@
         <v>12</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -9060,7 +9056,7 @@
     </row>
     <row r="68" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>78</v>
@@ -9088,7 +9084,7 @@
     </row>
     <row r="70" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>78</v>
@@ -9116,7 +9112,7 @@
     </row>
     <row r="72" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>78</v>
@@ -9125,7 +9121,7 @@
         <v>63</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -9144,7 +9140,7 @@
     </row>
     <row r="74" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>78</v>
@@ -9153,12 +9149,12 @@
         <v>63</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>78</v>
@@ -9167,7 +9163,7 @@
         <v>63</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -9181,21 +9177,21 @@
         <v>29</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -9248,10 +9244,10 @@
         <v>78</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -9279,7 +9275,7 @@
         <v>63</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -9304,10 +9300,10 @@
         <v>78</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -9470,7 +9466,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9489,58 +9485,58 @@
     </row>
     <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9554,21 +9550,21 @@
         <v>165</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9582,21 +9578,21 @@
         <v>165</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9610,21 +9606,21 @@
         <v>165</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9638,21 +9634,21 @@
         <v>165</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9666,21 +9662,21 @@
         <v>165</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9694,21 +9690,21 @@
         <v>165</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9722,21 +9718,21 @@
         <v>165</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9750,21 +9746,21 @@
         <v>165</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9778,21 +9774,21 @@
         <v>165</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9806,21 +9802,21 @@
         <v>165</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9834,21 +9830,21 @@
         <v>165</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9862,21 +9858,21 @@
         <v>165</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9890,21 +9886,21 @@
         <v>165</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9918,21 +9914,21 @@
         <v>165</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9946,21 +9942,21 @@
         <v>165</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -9974,21 +9970,21 @@
         <v>165</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10002,21 +9998,21 @@
         <v>165</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10030,21 +10026,21 @@
         <v>165</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10058,21 +10054,21 @@
         <v>165</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10086,21 +10082,21 @@
         <v>165</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10114,21 +10110,21 @@
         <v>165</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10142,21 +10138,21 @@
         <v>165</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10170,21 +10166,21 @@
         <v>165</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10198,21 +10194,21 @@
         <v>165</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10226,21 +10222,21 @@
         <v>165</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10254,21 +10250,21 @@
         <v>165</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10282,21 +10278,21 @@
         <v>165</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10310,21 +10306,21 @@
         <v>165</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10338,21 +10334,21 @@
         <v>165</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -10366,7 +10362,7 @@
         <v>165</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -10468,287 +10464,287 @@
     </row>
     <row r="2" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>56</v>
@@ -10757,12 +10753,12 @@
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>56</v>
@@ -10771,12 +10767,12 @@
         <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>56</v>
@@ -10785,12 +10781,12 @@
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>56</v>
@@ -10799,12 +10795,12 @@
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>56</v>
@@ -10813,12 +10809,12 @@
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>56</v>
@@ -10827,12 +10823,12 @@
         <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>56</v>
@@ -10841,12 +10837,12 @@
         <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>56</v>
@@ -10855,12 +10851,12 @@
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>56</v>
@@ -10869,12 +10865,12 @@
         <v>12</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>56</v>
@@ -10883,12 +10879,12 @@
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>56</v>
@@ -10897,12 +10893,12 @@
         <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -10911,12 +10907,12 @@
         <v>12</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>56</v>
@@ -10925,12 +10921,12 @@
         <v>12</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>56</v>
@@ -10939,12 +10935,12 @@
         <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>56</v>
@@ -10953,12 +10949,12 @@
         <v>12</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>56</v>
@@ -10967,12 +10963,12 @@
         <v>12</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>56</v>
@@ -10981,12 +10977,12 @@
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>56</v>
@@ -10995,12 +10991,12 @@
         <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>56</v>
@@ -11009,12 +11005,12 @@
         <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>56</v>
@@ -11023,12 +11019,12 @@
         <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>56</v>
@@ -11037,12 +11033,12 @@
         <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>56</v>
@@ -11051,12 +11047,12 @@
         <v>12</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>56</v>
@@ -11065,12 +11061,12 @@
         <v>12</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>56</v>
@@ -11079,12 +11075,12 @@
         <v>12</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>56</v>
@@ -11093,12 +11089,12 @@
         <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>56</v>
@@ -11107,12 +11103,12 @@
         <v>12</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>56</v>
@@ -11121,12 +11117,12 @@
         <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>56</v>
@@ -11135,12 +11131,12 @@
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>56</v>
@@ -11149,12 +11145,12 @@
         <v>12</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>56</v>
@@ -11163,12 +11159,12 @@
         <v>12</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>56</v>
@@ -11177,12 +11173,12 @@
         <v>12</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>56</v>
@@ -11191,12 +11187,12 @@
         <v>12</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>56</v>
@@ -11205,12 +11201,12 @@
         <v>12</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>56</v>
@@ -11219,12 +11215,12 @@
         <v>12</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>56</v>
@@ -11233,12 +11229,12 @@
         <v>12</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>56</v>
@@ -11247,12 +11243,12 @@
         <v>12</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
@@ -11261,12 +11257,12 @@
         <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>56</v>
@@ -11275,12 +11271,12 @@
         <v>12</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>56</v>
@@ -11289,12 +11285,12 @@
         <v>12</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>56</v>
@@ -11303,7 +11299,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -11329,10 +11325,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>195</v>
@@ -11340,277 +11336,277 @@
     </row>
     <row r="2" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="B2" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="B3" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="B4" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="B5" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="B6" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="B7" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="B8" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="B9" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="B10" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="B11" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="B12" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="B13" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="B14" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="B15" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="B16" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="B17" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="B18" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="B19" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="B20" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="B21" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="B22" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="B23" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="B24" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="B26" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
     </row>
   </sheetData>
@@ -11635,322 +11631,322 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B2" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B3" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="B4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B5" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="B6" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B7" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B8" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="B9" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B10" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B11" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B12" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="B13" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B14" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B15" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B16" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B17" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="B18" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="B19" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="B20" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B21" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="B22" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="B23" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="B24" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B25" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B26" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B27" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B28" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B29" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="B30" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B31" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B32" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B33" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="B34" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B35" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B36" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B37" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B38" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B39" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B40" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>

--- a/classes/grammar.xlsx
+++ b/classes/grammar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-45" windowWidth="4920" windowHeight="7680"/>
+    <workbookView xWindow="18300" yWindow="510" windowWidth="6510" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="corpus" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="530">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1097,35 +1097,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[
-  {
-    "desc_obj": {
-      "status": 0
-    },
-    "semantic": [
-      {
-        "app": "testgrammar",
-        "input": "买电视",
-        "slots": [
-          {
-            "modifier": [
-              "buy"
-            ],
-            "name": "mai",
-            "value": ""
-          }
-        ],
-        "modifier": [
-        ],
-        "customer": "58eca13984ae72170869b7c4"
-      }
-    ],
-    "type": "testgrammar"
-  }
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内容引用带匹配的slot_modifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1171,30 +1142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[
-  {
-    "desc_obj": {
-      "status": 0
-    },
-    "semantic": [
-      {
-        "app": "testgrammar",
-        "input": "装电视",
-        "slots": [
-        ],
-        "modifier": [
-          "build",
-          "装"
-        ],
-        "customer": "58eca13984ae72170869b7c4"
-      }
-    ],
-    "type": "testgrammar"
-  }
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内容引用带匹配的globle_modifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1328,6 +1275,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>看见远方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用slot、rule、template名称的大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案中有slot赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仰望星空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容为英文时例句匹配不区分大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHUOHUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[
   {
     "desc_obj": {
@@ -1336,12 +1307,8 @@
     "semantic": [
       {
         "app": "testgrammar",
-        "input": "看见远方",
+        "input": "SHUOHUA",
         "slots": [
-          {
-            "name": "slot5",
-            "value": "as"
-          }
         ],
         "modifier": [
         ],
@@ -1354,19 +1321,213 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看见远方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用slot、rule、template名称的大小写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答案中有slot赋值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仰望星空</t>
+    <t>内容为英文时例句匹配不区分全角半角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ｊｉａｎｇｈｕａ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "testgrammar",
+        "input": "ｊｉａｎｇｈｕａ",
+        "slots": [
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "testgrammar"
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容为标点符号时例句匹配不区分全角半角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello，zhangsan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "testgrammar",
+        "input": "hello，zhangsan",
+        "slots": [
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "testgrammar"
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>any 规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "testgrammar",
+        "input": "我想听热门歌曲",
+        "slots": [
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "testgrammar"
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想听热门歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skipper规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！你还好，，，吗。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeater 规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好累啊啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "testgrammar",
+        "input": "好累啊啊啊",
+        "slots": [
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "testgrammar"
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+  {
+    "desc_obj": {
+      "status": 0
+    },
+    "semantic": [
+      {
+        "app": "testgrammar",
+        "input": "！！！你还好，，，吗。。。",
+        "slots": [
+        ],
+        "modifier": [
+        ],
+        "customer": "58eca13984ae72170869b7c4"
+      }
+    ],
+    "type": "testgrammar"
+  }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说说看张三</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>说说看&lt;人物&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>说说看xx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>说说看刘德华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘德华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百科澳大利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;时间点&gt;要开会</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要去江苏省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要去非洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要去武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要去杨浦区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说说看刘德华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1397,14 +1558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内容为英文时例句匹配不区分大小写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHUOHUA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[
   {
     "desc_obj": {
@@ -1413,8 +1566,12 @@
     "semantic": [
       {
         "app": "testgrammar",
-        "input": "SHUOHUA",
+        "input": "看见远方",
         "slots": [
+          {
+            "name": "slot5",
+            "value": "as"
+          }
         ],
         "modifier": [
         ],
@@ -1427,12 +1584,760 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内容为英文时例句匹配不区分全角半角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ｊｉａｎｇｈｕａ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>买东西你会吗</t>
+  </si>
+  <si>
+    <t>你会买东西吗</t>
+  </si>
+  <si>
+    <t>你会购物吗</t>
+  </si>
+  <si>
+    <t>你会网购吗</t>
+  </si>
+  <si>
+    <t>你会网上购物吗</t>
+  </si>
+  <si>
+    <t>你会帮我买东西吗</t>
+  </si>
+  <si>
+    <t>你会在网上买东西吗</t>
+  </si>
+  <si>
+    <t>可以网购吗</t>
+  </si>
+  <si>
+    <t>你可以网上购物吗</t>
+  </si>
+  <si>
+    <t>你可以帮我买东西吗</t>
+  </si>
+  <si>
+    <t>你可以帮我网购吗</t>
+  </si>
+  <si>
+    <t>你能帮我买东西吗</t>
+  </si>
+  <si>
+    <t>你能网上购物吗</t>
+  </si>
+  <si>
+    <t>能不能网购</t>
+  </si>
+  <si>
+    <t>网购的功能有没有</t>
+  </si>
+  <si>
+    <t>你有网购的功能吗</t>
+  </si>
+  <si>
+    <t>是否有网购功能</t>
+  </si>
+  <si>
+    <t>支持网购吗</t>
+  </si>
+  <si>
+    <t>你支不支持网购</t>
+  </si>
+  <si>
+    <t>网购支持不</t>
+  </si>
+  <si>
+    <t>可以在易迅上面买东西吗</t>
+  </si>
+  <si>
+    <t>可以帮我在易迅上面买东西吗</t>
+  </si>
+  <si>
+    <t>你可以帮我在淘宝上买东西吗</t>
+  </si>
+  <si>
+    <t>可以通过易迅网帮我买些东西吗</t>
+  </si>
+  <si>
+    <t>能帮我在淘宝上买个东西吗</t>
+  </si>
+  <si>
+    <t>想在淘宝上买点东西可以帮我吗</t>
+  </si>
+  <si>
+    <t>我想在淘宝上买东西你能帮我吗</t>
+  </si>
+  <si>
+    <t>你会买袜子吗</t>
+  </si>
+  <si>
+    <t>可以帮忙买电器吗</t>
+  </si>
+  <si>
+    <t>可以帮我买电脑吗</t>
+  </si>
+  <si>
+    <t>你能买吃的吗</t>
+  </si>
+  <si>
+    <t>能买衬衣吗</t>
+  </si>
+  <si>
+    <t>能买袜子吗</t>
+  </si>
+  <si>
+    <t>你能买袜子吗</t>
+  </si>
+  <si>
+    <t>苹果五手机的价位</t>
+  </si>
+  <si>
+    <t>查一下滚筒洗衣机的价格</t>
+  </si>
+  <si>
+    <t>去看下笔记本电脑的价格</t>
+  </si>
+  <si>
+    <t>看下儿童座椅的价格</t>
+  </si>
+  <si>
+    <t>小米2s多少钱</t>
+  </si>
+  <si>
+    <t>查询室内单杠的价格</t>
+  </si>
+  <si>
+    <t>htc8x，现在多少钱</t>
+  </si>
+  <si>
+    <t>iphone5多少钱</t>
+  </si>
+  <si>
+    <t>诺基亚手机的价格</t>
+  </si>
+  <si>
+    <t>iPhone5的价格是多少</t>
+  </si>
+  <si>
+    <t>i5处理器最新价格</t>
+  </si>
+  <si>
+    <t>看一下手机的价格</t>
+  </si>
+  <si>
+    <t>看看儿童座椅的价格</t>
+  </si>
+  <si>
+    <t>搜下小米手机的价格</t>
+  </si>
+  <si>
+    <t>我想买一个手机套，要多少钱</t>
+  </si>
+  <si>
+    <t>帮我去淘宝看看男士羽绒服的价格</t>
+  </si>
+  <si>
+    <t>帮我看看淘宝上男士羽绒服的价格</t>
+  </si>
+  <si>
+    <t>上京东看看ipad4的价格</t>
+  </si>
+  <si>
+    <t>我想买个东西</t>
+  </si>
+  <si>
+    <t>网上买东西</t>
+  </si>
+  <si>
+    <t>我想网购些东西</t>
+  </si>
+  <si>
+    <t>我想网购一些东西</t>
+  </si>
+  <si>
+    <t>我要购物</t>
+  </si>
+  <si>
+    <t>我想网购一点东西</t>
+  </si>
+  <si>
+    <t>我要网购一些东西</t>
+  </si>
+  <si>
+    <t>我想网购</t>
+  </si>
+  <si>
+    <t>我要网购</t>
+  </si>
+  <si>
+    <t>我要买东西</t>
+  </si>
+  <si>
+    <t>想买点东西</t>
+  </si>
+  <si>
+    <t>帮我买东西</t>
+  </si>
+  <si>
+    <t>网购东西</t>
+  </si>
+  <si>
+    <t>我要网购些东西</t>
+  </si>
+  <si>
+    <t>我要网购一点东西</t>
+  </si>
+  <si>
+    <t>我要买显卡</t>
+  </si>
+  <si>
+    <t>我想买书</t>
+  </si>
+  <si>
+    <t>我要买衣服</t>
+  </si>
+  <si>
+    <t>我想买房子</t>
+  </si>
+  <si>
+    <t>我要买连衣裙</t>
+  </si>
+  <si>
+    <t>我要买飞机</t>
+  </si>
+  <si>
+    <t>我要买iphone4s</t>
+  </si>
+  <si>
+    <t>需要买得力的文具</t>
+  </si>
+  <si>
+    <t>帮我买键盘</t>
+  </si>
+  <si>
+    <t>我要买儿童玩具</t>
+  </si>
+  <si>
+    <t>我要买车</t>
+  </si>
+  <si>
+    <t>我要买女装</t>
+  </si>
+  <si>
+    <t>我要买衬衫</t>
+  </si>
+  <si>
+    <t>我要去买裙子</t>
+  </si>
+  <si>
+    <t>我要买进口啤酒</t>
+  </si>
+  <si>
+    <t>我想买毛绒玩具</t>
+  </si>
+  <si>
+    <t>帮我买毛绒玩具</t>
+  </si>
+  <si>
+    <t>我要买iPadair</t>
+  </si>
+  <si>
+    <t>买女士秋季外套</t>
+  </si>
+  <si>
+    <t>我要买iPad4的保护套</t>
+  </si>
+  <si>
+    <t>我要买华硕的笔记本电脑</t>
+  </si>
+  <si>
+    <t>我要买水杯</t>
+  </si>
+  <si>
+    <t>我要买保温水杯</t>
+  </si>
+  <si>
+    <t>我要买三星耳机</t>
+  </si>
+  <si>
+    <t>购买pm2.5口罩</t>
+  </si>
+  <si>
+    <t>买pm2.5口罩</t>
+  </si>
+  <si>
+    <t>我要买糖</t>
+  </si>
+  <si>
+    <t>买二手手机</t>
+  </si>
+  <si>
+    <t>我想买kiddlepaperwhite2</t>
+  </si>
+  <si>
+    <t>我要买房</t>
+  </si>
+  <si>
+    <t>我要买手机</t>
+  </si>
+  <si>
+    <t>买42寸的彩电</t>
+  </si>
+  <si>
+    <t>我想买上海市高二的数学课本</t>
+  </si>
+  <si>
+    <t>我要买图书</t>
+  </si>
+  <si>
+    <t>我要买丹麦皇冠曲奇</t>
+  </si>
+  <si>
+    <t>我要买坦克</t>
+  </si>
+  <si>
+    <t>我要买大闸蟹</t>
+  </si>
+  <si>
+    <t>我要买阳澄湖大闸蟹</t>
+  </si>
+  <si>
+    <t>买奶粉</t>
+  </si>
+  <si>
+    <t>我要去京东买点东西</t>
+  </si>
+  <si>
+    <t>我想在淘宝上买东西</t>
+  </si>
+  <si>
+    <t>我要到京东买点东西</t>
+  </si>
+  <si>
+    <t>我要去淘宝买东西</t>
+  </si>
+  <si>
+    <t>我要去1号店买点东西</t>
+  </si>
+  <si>
+    <t>我要去1号店购物</t>
+  </si>
+  <si>
+    <t>打开天猫购物</t>
+  </si>
+  <si>
+    <t>上天猫网购物</t>
+  </si>
+  <si>
+    <t>我要在易迅上购物</t>
+  </si>
+  <si>
+    <t>我要在易迅网上购物</t>
+  </si>
+  <si>
+    <t>我要在聚美优品购物</t>
+  </si>
+  <si>
+    <t>打开京东购物</t>
+  </si>
+  <si>
+    <t>我要到淘宝买东西</t>
+  </si>
+  <si>
+    <t>去天猫上买商品</t>
+  </si>
+  <si>
+    <t>打开亚马逊网页购物</t>
+  </si>
+  <si>
+    <t>想买个智能手机</t>
+  </si>
+  <si>
+    <t>买台创维的液晶电视</t>
+  </si>
+  <si>
+    <t>买个鼠标</t>
+  </si>
+  <si>
+    <t>我想去买个手机</t>
+  </si>
+  <si>
+    <t>去买个htc手机</t>
+  </si>
+  <si>
+    <t>我想买双鞋子</t>
+  </si>
+  <si>
+    <t>去买个相机</t>
+  </si>
+  <si>
+    <t>去帮我买部手机</t>
+  </si>
+  <si>
+    <t>帮我买一个背包</t>
+  </si>
+  <si>
+    <t>我想买本书</t>
+  </si>
+  <si>
+    <t>买本漫画书</t>
+  </si>
+  <si>
+    <t>帮我买个上网卡</t>
+  </si>
+  <si>
+    <t>我想买一部华为手机</t>
+  </si>
+  <si>
+    <t>给我买件女装</t>
+  </si>
+  <si>
+    <t>我想买部手机</t>
+  </si>
+  <si>
+    <t>我要买辆车</t>
+  </si>
+  <si>
+    <t>我要买架飞机</t>
+  </si>
+  <si>
+    <t>帮我买辆自行车</t>
+  </si>
+  <si>
+    <t>去给我买个手机</t>
+  </si>
+  <si>
+    <t>我想买一斤苹果</t>
+  </si>
+  <si>
+    <t>购买两支铅笔</t>
+  </si>
+  <si>
+    <t>想买双棕色的长靴</t>
+  </si>
+  <si>
+    <t>我想买双冬天穿的拖鞋</t>
+  </si>
+  <si>
+    <t>买条白色长裙</t>
+  </si>
+  <si>
+    <t>我想买一个电饭煲</t>
+  </si>
+  <si>
+    <t>买台17寸的显示器</t>
+  </si>
+  <si>
+    <t>买个1米8的双人床</t>
+  </si>
+  <si>
+    <t>去买个HTC手机</t>
+  </si>
+  <si>
+    <t>我想买本英语资料</t>
+  </si>
+  <si>
+    <t>我想买本英汉词典</t>
+  </si>
+  <si>
+    <t>我要买个iPhone6</t>
+  </si>
+  <si>
+    <t>给我买一个智能吹风机</t>
+  </si>
+  <si>
+    <t>我想买本便宜的英汉词典</t>
+  </si>
+  <si>
+    <t>给我买一架遥控飞机</t>
+  </si>
+  <si>
+    <t>我要买一件七匹狼的衣服</t>
+  </si>
+  <si>
+    <t>我要买两套情侣装</t>
+  </si>
+  <si>
+    <t>我要买一台二手的山地车</t>
+  </si>
+  <si>
+    <t>我想在网上买条裙子</t>
+  </si>
+  <si>
+    <t>我想买台红色的笔记本电脑</t>
+  </si>
+  <si>
+    <t>去易迅买电器</t>
+  </si>
+  <si>
+    <t>去红孩子买母婴产品</t>
+  </si>
+  <si>
+    <t>我要去京东买衣服</t>
+  </si>
+  <si>
+    <t>我要上当当买图书</t>
+  </si>
+  <si>
+    <t>我要上京东买母婴产品</t>
+  </si>
+  <si>
+    <t>我要去京东商城买手机</t>
+  </si>
+  <si>
+    <t>我要去天猫买连衣裙</t>
+  </si>
+  <si>
+    <t>我要在当当网上买书</t>
+  </si>
+  <si>
+    <t>我想在乐蜂网上买化妆品</t>
+  </si>
+  <si>
+    <t>我要在乐蜂网上买化妆品</t>
+  </si>
+  <si>
+    <t>去淘宝买衣服</t>
+  </si>
+  <si>
+    <t>到1号店买生活用品</t>
+  </si>
+  <si>
+    <t>去京东买HTC手机</t>
+  </si>
+  <si>
+    <t>去易讯买电器</t>
+  </si>
+  <si>
+    <t>我要在淘宝网买鞋子</t>
+  </si>
+  <si>
+    <t>我要在亚马逊上买书</t>
+  </si>
+  <si>
+    <t>去京东商城买女士瑞士手表</t>
+  </si>
+  <si>
+    <t>登陆京东商城买女士卡西欧手表</t>
+  </si>
+  <si>
+    <t>上红孩子买奶瓶</t>
+  </si>
+  <si>
+    <t>我想在淘宝上买打折的女士短裤</t>
+  </si>
+  <si>
+    <t>我要买理智与情感，在淘宝网上</t>
+  </si>
+  <si>
+    <t>打开淘宝网，买丹麦皇冠曲奇</t>
+  </si>
+  <si>
+    <t>我想在1号店上买蜂蜜柚子茶</t>
+  </si>
+  <si>
+    <t>上1号店买蜂蜜柚子茶</t>
+  </si>
+  <si>
+    <t>到1号店买蜂蜜柚子茶</t>
+  </si>
+  <si>
+    <t>上天猫买韩国产的蜂蜜柚子茶</t>
+  </si>
+  <si>
+    <t>上京东商城买男士鞋子</t>
+  </si>
+  <si>
+    <t>我要在1号店上买华夫饼</t>
+  </si>
+  <si>
+    <t>我要在一号店上买华夫饼</t>
+  </si>
+  <si>
+    <t>我要上淘宝买钻石</t>
+  </si>
+  <si>
+    <t>去天猫买家电</t>
+  </si>
+  <si>
+    <t>我要上京东买飞机</t>
+  </si>
+  <si>
+    <t>去京东买特价内衣</t>
+  </si>
+  <si>
+    <t>去淘宝买便宜的女士衬衣</t>
+  </si>
+  <si>
+    <t>去淘宝买特价女士内衣</t>
+  </si>
+  <si>
+    <t>我要买华夫饼，在1号店上</t>
+  </si>
+  <si>
+    <t>在一号店上面买一包糖</t>
+  </si>
+  <si>
+    <t>去麦包包买个双肩包</t>
+  </si>
+  <si>
+    <t>在京东上面买件衣服</t>
+  </si>
+  <si>
+    <t>我想通过淘宝网买一支钢笔</t>
+  </si>
+  <si>
+    <t>我想通过易迅网买一支钢笔</t>
+  </si>
+  <si>
+    <t>我想通过京东买一支钢笔</t>
+  </si>
+  <si>
+    <t>我要去淘宝买一块女士手表</t>
+  </si>
+  <si>
+    <t>淘宝上买一个24英寸的电视机</t>
+  </si>
+  <si>
+    <t>上京东网买个炒菜锅</t>
+  </si>
+  <si>
+    <t>我要去苏宁易购买个手机</t>
+  </si>
+  <si>
+    <t>我要去天猫买个手机</t>
+  </si>
+  <si>
+    <t>我想在一号店买一个剃须刀</t>
+  </si>
+  <si>
+    <t>我想在京东上购买一盒牛奶</t>
+  </si>
+  <si>
+    <t>帮我在京东上买把雨伞</t>
+  </si>
+  <si>
+    <t>上天猫买双秋天穿的皮鞋</t>
+  </si>
+  <si>
+    <t>去京东买一件七匹狼的衬衣</t>
+  </si>
+  <si>
+    <t>去天猫买一件海澜之家的裤子</t>
+  </si>
+  <si>
+    <t>我要在天猫上买一对情侣钻戒</t>
+  </si>
+  <si>
+    <t>我想在美味七七上买点水果</t>
+  </si>
+  <si>
+    <t>买不低于100元的鼠标</t>
+  </si>
+  <si>
+    <t>我要买3000元以上的手机</t>
+  </si>
+  <si>
+    <t>买高于200元的男士皮鞋</t>
+  </si>
+  <si>
+    <t>我想买3000元以上的手机</t>
+  </si>
+  <si>
+    <t>我想买3000元以内的手机</t>
+  </si>
+  <si>
+    <t>我要买500元以下的手机</t>
+  </si>
+  <si>
+    <t>我要买三星手机5000以下的</t>
+  </si>
+  <si>
+    <t>我想买价格在500元以下的洗衣机</t>
+  </si>
+  <si>
+    <t>我要买五十块钱以内的保暖衣</t>
+  </si>
+  <si>
+    <t>我想买0元的衬衣</t>
+  </si>
+  <si>
+    <t>想买30元的衣服</t>
+  </si>
+  <si>
+    <t>我打算买15万左右的车子</t>
+  </si>
+  <si>
+    <t>我想看一下5000块左右的笔记本</t>
+  </si>
+  <si>
+    <t>推荐我5000元以上的手机</t>
+  </si>
+  <si>
+    <t>推荐我5000元左右的笔记本</t>
+  </si>
+  <si>
+    <t>推荐1000元左右的笔记本</t>
+  </si>
+  <si>
+    <t>我想买3000到4000元的手机</t>
+  </si>
+  <si>
+    <t>买价格在30到50之间的室内单杠</t>
+  </si>
+  <si>
+    <t>我要买4000到6000之间的联想电脑</t>
+  </si>
+  <si>
+    <t>买个三十块钱以上的拖线板</t>
+  </si>
+  <si>
+    <t>买个三十块以上的拖线板</t>
+  </si>
+  <si>
+    <t>买个十块钱以下的拖线板</t>
+  </si>
+  <si>
+    <t>买部不超过500元的手机</t>
+  </si>
+  <si>
+    <t>买部手机，不要超过2000元</t>
+  </si>
+  <si>
+    <t>我想买一双90元以下的女士长筒靴</t>
+  </si>
+  <si>
+    <t>我想买一台2000元以内的手机</t>
+  </si>
+  <si>
+    <t>帮我买一件70元的衬衫</t>
+  </si>
+  <si>
+    <t>买部手机价格在500元左右</t>
+  </si>
+  <si>
+    <t>我要买一支500上下的钢笔</t>
+  </si>
+  <si>
+    <t>我要买一支500元上下的钢笔</t>
+  </si>
+  <si>
+    <t>买块500元左右的手表</t>
+  </si>
+  <si>
+    <t>帮我看个500元以上的手机</t>
+  </si>
+  <si>
+    <t>想买条300到1000元的礼服</t>
+  </si>
+  <si>
+    <t>想买台3百到1千元的电器</t>
+  </si>
+  <si>
+    <t>帮我买部不低于2000不高于3000的手机</t>
+  </si>
+  <si>
+    <t>买个10到20元的压缩袋</t>
+  </si>
+  <si>
+    <t>我想买一款300到500元的手机</t>
   </si>
   <si>
     <t>[
@@ -1443,8 +2348,15 @@
     "semantic": [
       {
         "app": "testgrammar",
-        "input": "ｊｉａｎｇｈｕａ",
+        "input": "买电视",
         "slots": [
+          {
+            "modifier": [
+              "买"
+            ],
+            "name": "mai",
+            "value": ""
+          }
         ],
         "modifier": [
         ],
@@ -1457,14 +2369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内容为标点符号时例句匹配不区分全角半角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello，zhangsan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[
   {
     "desc_obj": {
@@ -1473,10 +2377,12 @@
     "semantic": [
       {
         "app": "testgrammar",
-        "input": "hello，zhangsan",
+        "input": "装电视",
         "slots": [
         ],
         "modifier": [
+          "装",
+          "造"
         ],
         "customer": "58eca13984ae72170869b7c4"
       }
@@ -1484,889 +2390,6 @@
     "type": "testgrammar"
   }
 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>any 规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-  {
-    "desc_obj": {
-      "status": 0
-    },
-    "semantic": [
-      {
-        "app": "testgrammar",
-        "input": "我想听热门歌曲",
-        "slots": [
-        ],
-        "modifier": [
-        ],
-        "customer": "58eca13984ae72170869b7c4"
-      }
-    ],
-    "type": "testgrammar"
-  }
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我想听热门歌曲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skipper规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！你还好，，，吗。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeater 规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好累啊啊啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-  {
-    "desc_obj": {
-      "status": 0
-    },
-    "semantic": [
-      {
-        "app": "testgrammar",
-        "input": "好累啊啊啊",
-        "slots": [
-        ],
-        "modifier": [
-        ],
-        "customer": "58eca13984ae72170869b7c4"
-      }
-    ],
-    "type": "testgrammar"
-  }
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-  {
-    "desc_obj": {
-      "status": 0
-    },
-    "semantic": [
-      {
-        "app": "testgrammar",
-        "input": "！！！你还好，，，吗。。。",
-        "slots": [
-        ],
-        "modifier": [
-        ],
-        "customer": "58eca13984ae72170869b7c4"
-      }
-    ],
-    "type": "testgrammar"
-  }
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说说看张三</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>说说看&lt;人物&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>说说看xx</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>说说看刘德华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘德华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百科上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百科澳大利亚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;时间点&gt;要开会</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要去江苏省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要去非洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要去武汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要去杨浦区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说说看刘德华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮我定间酒店</t>
-  </si>
-  <si>
-    <t>替我订间宾馆</t>
-  </si>
-  <si>
-    <t>帮我定一间酒店</t>
-  </si>
-  <si>
-    <t>帮我预定一个旅馆</t>
-  </si>
-  <si>
-    <t>给我订个酒店</t>
-  </si>
-  <si>
-    <t>给我预定一个旅馆</t>
-  </si>
-  <si>
-    <t>酒店预订</t>
-  </si>
-  <si>
-    <t>宾馆预定</t>
-  </si>
-  <si>
-    <t>开个房间</t>
-  </si>
-  <si>
-    <t>订个酒店住</t>
-  </si>
-  <si>
-    <t>预定酒店住</t>
-  </si>
-  <si>
-    <t>帮我预订个酒店住</t>
-  </si>
-  <si>
-    <t>给我订家酒店住</t>
-  </si>
-  <si>
-    <t>请帮我定一家酒店</t>
-  </si>
-  <si>
-    <t>我想订酒店</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我想订一间酒店 </t>
-  </si>
-  <si>
-    <t>我要订间酒店</t>
-  </si>
-  <si>
-    <t>我要订酒店</t>
-  </si>
-  <si>
-    <t>订一个酒店在陆家嘴附近</t>
-  </si>
-  <si>
-    <t>订一个酒店靠近五角场</t>
-  </si>
-  <si>
-    <t>订家酒店外滩附近</t>
-  </si>
-  <si>
-    <t>订酒店在张江附近</t>
-  </si>
-  <si>
-    <t>帮我在张江订酒店</t>
-  </si>
-  <si>
-    <t>在浦东张江给我订家酒店</t>
-  </si>
-  <si>
-    <t>在张江那边给我订家酒店</t>
-  </si>
-  <si>
-    <t>在陆家嘴周围订家酒店</t>
-  </si>
-  <si>
-    <t>在陆家嘴那里帮我订个酒店</t>
-  </si>
-  <si>
-    <t>我要在上海徐家汇附近订酒店</t>
-  </si>
-  <si>
-    <t>帮我在正大广场附近订一家酒店</t>
-  </si>
-  <si>
-    <t>靠近人民广场帮我订家酒店</t>
-  </si>
-  <si>
-    <t>帮我在北京王府井附近订家酒店</t>
-  </si>
-  <si>
-    <t>在上海人民广场附近订一个宾馆</t>
-  </si>
-  <si>
-    <t>帮我在张江高科附近订间酒店</t>
-  </si>
-  <si>
-    <t>在汕头订一家酒店</t>
-  </si>
-  <si>
-    <t>在南京帮我订家酒店</t>
-  </si>
-  <si>
-    <t>请帮我在上海订酒店</t>
-  </si>
-  <si>
-    <t>我想在上海订一家酒店</t>
-  </si>
-  <si>
-    <t>我想在武汉预订酒店</t>
-  </si>
-  <si>
-    <t>订一家天安门附近的酒店</t>
-  </si>
-  <si>
-    <t>我要订家上海植物园附近的宾馆</t>
-  </si>
-  <si>
-    <t>订一个天安门附近的酒店</t>
-  </si>
-  <si>
-    <t>订一个陆家嘴旁边的酒店</t>
-  </si>
-  <si>
-    <t>订一个靠近陆家嘴的酒店</t>
-  </si>
-  <si>
-    <t>我要订南京紫金山附近的酒店</t>
-  </si>
-  <si>
-    <t>我要订青岛的酒店</t>
-  </si>
-  <si>
-    <t>给我订北京的酒店</t>
-  </si>
-  <si>
-    <t>订哈尔滨的酒店</t>
-  </si>
-  <si>
-    <t>预订北京的酒店</t>
-  </si>
-  <si>
-    <t>预约上海的酒店</t>
-  </si>
-  <si>
-    <t>我想订上海酒店</t>
-  </si>
-  <si>
-    <t>帮我在南京定个酒店住</t>
-  </si>
-  <si>
-    <t>帮我定一间陆家嘴附近的酒店</t>
-  </si>
-  <si>
-    <t>帮我定一间王府井附近的酒店</t>
-  </si>
-  <si>
-    <t>帮我定广州的酒店</t>
-  </si>
-  <si>
-    <t>帮我定间北京的酒店</t>
-  </si>
-  <si>
-    <t>帮我定首都国际机场附近的酒店</t>
-  </si>
-  <si>
-    <t>帮我定人民广场附近的酒店</t>
-  </si>
-  <si>
-    <t>预定杭州西湖附近的酒店</t>
-  </si>
-  <si>
-    <t>我要订北京王府井附近的酒店</t>
-  </si>
-  <si>
-    <t>帮我在厦门大学附近定间酒店</t>
-  </si>
-  <si>
-    <t>预定明天的酒店</t>
-  </si>
-  <si>
-    <t>预定周六的酒店</t>
-  </si>
-  <si>
-    <t>预定10月5日的酒店</t>
-  </si>
-  <si>
-    <t>帮我订个大后天的宾馆</t>
-  </si>
-  <si>
-    <t>给我预定7月1号的宾馆</t>
-  </si>
-  <si>
-    <t>订一间3月20号入住的酒店</t>
-  </si>
-  <si>
-    <t>预订一间下周一入住的酒店</t>
-  </si>
-  <si>
-    <t>订一间这个月17号入住的酒店</t>
-  </si>
-  <si>
-    <t>订酒店明天开始入住</t>
-  </si>
-  <si>
-    <t>预订一个酒店下个月四号入住</t>
-  </si>
-  <si>
-    <t>帮我订个宾馆明天晚上住</t>
-  </si>
-  <si>
-    <t>我想定三星级酒店</t>
-  </si>
-  <si>
-    <t>我想订一个三星级酒店</t>
-  </si>
-  <si>
-    <t>帮我定三星级酒店</t>
-  </si>
-  <si>
-    <t>帮我订个五星级的酒店</t>
-  </si>
-  <si>
-    <t>帮我预定一家五星级酒店</t>
-  </si>
-  <si>
-    <t>给我定三星级酒店</t>
-  </si>
-  <si>
-    <t>预定四星级酒店</t>
-  </si>
-  <si>
-    <t>我要预定五星级酒店</t>
-  </si>
-  <si>
-    <t>我要定三星级酒店</t>
-  </si>
-  <si>
-    <t>定个三星级酒店</t>
-  </si>
-  <si>
-    <t>订个五星级酒店</t>
-  </si>
-  <si>
-    <t>帮我订酒店要五星级的</t>
-  </si>
-  <si>
-    <t>帮我订个三星级以下的酒店</t>
-  </si>
-  <si>
-    <t>定酒店我要四星级的</t>
-  </si>
-  <si>
-    <t>订酒店我要四星级的</t>
-  </si>
-  <si>
-    <t>订酒店，我要四星级的</t>
-  </si>
-  <si>
-    <t>订酒店要五星级的</t>
-  </si>
-  <si>
-    <t>帮我定一个四人间</t>
-  </si>
-  <si>
-    <t>帮我订一个四人间</t>
-  </si>
-  <si>
-    <t>帮我订个单间</t>
-  </si>
-  <si>
-    <t>帮我订一个大床的房间</t>
-  </si>
-  <si>
-    <t>帮忙订个大床房</t>
-  </si>
-  <si>
-    <t>给我定间总统套房</t>
-  </si>
-  <si>
-    <t>我要订一个套房</t>
-  </si>
-  <si>
-    <t>订一个标准间</t>
-  </si>
-  <si>
-    <t>定一个标准间</t>
-  </si>
-  <si>
-    <t>订一个标准间住</t>
-  </si>
-  <si>
-    <t>帮我订一间标房</t>
-  </si>
-  <si>
-    <t>帮我定一个标间</t>
-  </si>
-  <si>
-    <t>帮我订间标房</t>
-  </si>
-  <si>
-    <t>帮忙定个大床房</t>
-  </si>
-  <si>
-    <t>帮我订个标间</t>
-  </si>
-  <si>
-    <t>定个标准间</t>
-  </si>
-  <si>
-    <t>帮个忙定个套间吧</t>
-  </si>
-  <si>
-    <t>我要订个套房</t>
-  </si>
-  <si>
-    <t>帮我订间套房</t>
-  </si>
-  <si>
-    <t>帮忙订一个高级套房</t>
-  </si>
-  <si>
-    <t>帮个忙订个套间的</t>
-  </si>
-  <si>
-    <t>我要订豪华型酒店</t>
-  </si>
-  <si>
-    <t>预定豪华酒店</t>
-  </si>
-  <si>
-    <t>预定经济型酒店</t>
-  </si>
-  <si>
-    <t>帮我订个经济型酒店</t>
-  </si>
-  <si>
-    <t>帮我预订一个商务型酒店</t>
-  </si>
-  <si>
-    <t>订个度假型酒店</t>
-  </si>
-  <si>
-    <t>帮我预订舒适型客栈</t>
-  </si>
-  <si>
-    <t>帮我预订豪华型酒店</t>
-  </si>
-  <si>
-    <t>预定一家高级酒店</t>
-  </si>
-  <si>
-    <t>我要订高档酒店</t>
-  </si>
-  <si>
-    <t>预订高档酒店</t>
-  </si>
-  <si>
-    <t>我要订一个高档的宾馆</t>
-  </si>
-  <si>
-    <t>预定200元以内的酒店</t>
-  </si>
-  <si>
-    <t>订一个两百块左右的酒店</t>
-  </si>
-  <si>
-    <t>订一间价格不低于150的酒店</t>
-  </si>
-  <si>
-    <t>帮我订一个价格在200元左右的酒店</t>
-  </si>
-  <si>
-    <t>帮我预定一个价钱在200元左右的酒店</t>
-  </si>
-  <si>
-    <t>预订少于500元的宾馆</t>
-  </si>
-  <si>
-    <t>我要订200元左右的酒店</t>
-  </si>
-  <si>
-    <t>订一间价格不高于150的酒店</t>
-  </si>
-  <si>
-    <t>预订不超过500元的宾馆</t>
-  </si>
-  <si>
-    <t>帮我定一个价格在200元左右的酒店</t>
-  </si>
-  <si>
-    <t>给我订一间200元以内的酒店</t>
-  </si>
-  <si>
-    <t>帮我订一间200元上下的酒店</t>
-  </si>
-  <si>
-    <t>帮我预定500元以内的酒店</t>
-  </si>
-  <si>
-    <t>订一间200元左右的房间</t>
-  </si>
-  <si>
-    <t>给我订一间200元上下的酒店</t>
-  </si>
-  <si>
-    <t>帮我订一间200元以内的酒店</t>
-  </si>
-  <si>
-    <t>预定200元左右的酒店</t>
-  </si>
-  <si>
-    <t>帮我订酒店要价格在200以上的</t>
-  </si>
-  <si>
-    <t>订酒店，200元以内的</t>
-  </si>
-  <si>
-    <t>订酒店价格不高于500元</t>
-  </si>
-  <si>
-    <t>订宾馆价格不要高于500元</t>
-  </si>
-  <si>
-    <t>订酒店，200元上下的</t>
-  </si>
-  <si>
-    <t>我要订酒店价格在200元以下</t>
-  </si>
-  <si>
-    <t>要一间200元上下的房间</t>
-  </si>
-  <si>
-    <t>我要一间价格在200元上下的酒店</t>
-  </si>
-  <si>
-    <t>我要一间价格在200元以内的酒店</t>
-  </si>
-  <si>
-    <t>帮我预定锦江之星</t>
-  </si>
-  <si>
-    <t>帮我预订汉庭酒店</t>
-  </si>
-  <si>
-    <t>帮我预订格林豪泰酒店</t>
-  </si>
-  <si>
-    <t>预订布丁酒店</t>
-  </si>
-  <si>
-    <t>预定布丁酒店</t>
-  </si>
-  <si>
-    <t>我要预订锦江酒店</t>
-  </si>
-  <si>
-    <t>预定星程酒店</t>
-  </si>
-  <si>
-    <t>预定如家</t>
-  </si>
-  <si>
-    <t>帮我定间汉庭酒店</t>
-  </si>
-  <si>
-    <t>帮我预订锦江之星</t>
-  </si>
-  <si>
-    <t>我想在汉庭订个房间</t>
-  </si>
-  <si>
-    <t>在四季酒店订一个房间</t>
-  </si>
-  <si>
-    <t>要一间有健身房的酒店</t>
-  </si>
-  <si>
-    <t>预定有健身房的酒店</t>
-  </si>
-  <si>
-    <t>帮我订酒店要有健身房的</t>
-  </si>
-  <si>
-    <t>帮我在附近定一家明天的宾馆</t>
-  </si>
-  <si>
-    <t>帮我在附近订一下明天的宾馆</t>
-  </si>
-  <si>
-    <t>替我在上海预订酒店，星期三我要住进去</t>
-  </si>
-  <si>
-    <t>替我在上海预订酒店星期三我要住进去</t>
-  </si>
-  <si>
-    <t>给我在重庆预定酒店明天住进去</t>
-  </si>
-  <si>
-    <t>帮我订上海闵行的酒店，明天开始入住</t>
-  </si>
-  <si>
-    <t>预订明天南京的酒店</t>
-  </si>
-  <si>
-    <t>定个明天十点青岛的酒店</t>
-  </si>
-  <si>
-    <t>预订星期一南京的酒店</t>
-  </si>
-  <si>
-    <t>预订后天南京的酒店</t>
-  </si>
-  <si>
-    <t>帮我订间4月6日北京的酒店</t>
-  </si>
-  <si>
-    <t>帮我在附近定一家三星级酒店</t>
-  </si>
-  <si>
-    <t>帮我在附近订一下三星级酒店</t>
-  </si>
-  <si>
-    <t>替我在上海预订酒店，要三星级的</t>
-  </si>
-  <si>
-    <t>替我在上海预订酒店要三星级的</t>
-  </si>
-  <si>
-    <t>帮我订上海闵行的酒店，要三星级的</t>
-  </si>
-  <si>
-    <t>帮我在附近定一个三人间</t>
-  </si>
-  <si>
-    <t>帮我在杭州订一下标准间</t>
-  </si>
-  <si>
-    <t>替我在上海预订酒店，双人间</t>
-  </si>
-  <si>
-    <t>帮我订上海闵行的酒店，我要标准间</t>
-  </si>
-  <si>
-    <t>预订南京的双人间</t>
-  </si>
-  <si>
-    <t>预订一间南京的双人间</t>
-  </si>
-  <si>
-    <t>帮我在附近定一家商务型宾馆</t>
-  </si>
-  <si>
-    <t>帮我在附近订一下舒适型宾馆</t>
-  </si>
-  <si>
-    <t>替我在上海预订酒店，高档的</t>
-  </si>
-  <si>
-    <t>替我在上海预订酒店要度假型的</t>
-  </si>
-  <si>
-    <t>帮我订上海闵行的酒店，我要经济型的</t>
-  </si>
-  <si>
-    <t>预订南京的商务型酒店</t>
-  </si>
-  <si>
-    <t>定个青岛的度假型酒店</t>
-  </si>
-  <si>
-    <t>预订南京的舒适型酒店</t>
-  </si>
-  <si>
-    <t>帮我在附近定一家300块钱以下的宾馆</t>
-  </si>
-  <si>
-    <t>帮我在附近订一下300块钱左右的宾馆</t>
-  </si>
-  <si>
-    <t>替我在上海预订酒店，我要300块钱以内的</t>
-  </si>
-  <si>
-    <t>替我在上海预订酒店要200块以上的</t>
-  </si>
-  <si>
-    <t>帮我订上海闵行的酒店，300块钱左右的</t>
-  </si>
-  <si>
-    <t>预订南京的200元以内的酒店</t>
-  </si>
-  <si>
-    <t>定个青岛的300元以上的酒店</t>
-  </si>
-  <si>
-    <t>预订南京300元上下的酒店</t>
-  </si>
-  <si>
-    <t>帮我在附近定一家锦江之星</t>
-  </si>
-  <si>
-    <t>帮我在附近的锦江之星订一个房间</t>
-  </si>
-  <si>
-    <t>帮我在上海闵行订酒店，要锦江之星的</t>
-  </si>
-  <si>
-    <t>帮我订上海闵行的酒店，锦江之星</t>
-  </si>
-  <si>
-    <t>预订南京的锦江之星</t>
-  </si>
-  <si>
-    <t>定个青岛的汉廷酒店</t>
-  </si>
-  <si>
-    <t>帮我在附近定一家有健身房的宾馆</t>
-  </si>
-  <si>
-    <t>帮我在附近订一下有健身房的宾馆</t>
-  </si>
-  <si>
-    <t>替我在上海预订酒店，我要有健身房的</t>
-  </si>
-  <si>
-    <t>替我在上海预订酒店要有儿童乐园的</t>
-  </si>
-  <si>
-    <t>帮我订上海闵行的酒店，要有健身房的</t>
-  </si>
-  <si>
-    <t>预订南京的有机场大巴的酒店</t>
-  </si>
-  <si>
-    <t>定个青岛的有亲子乐园的酒店</t>
-  </si>
-  <si>
-    <t>预订南京带游泳池的酒店</t>
-  </si>
-  <si>
-    <t>我要订个四星级以上的豪华型酒店</t>
-  </si>
-  <si>
-    <t>订个三星级左右的度假型酒店</t>
-  </si>
-  <si>
-    <t>帮我预订三星级以内的舒适型客栈</t>
-  </si>
-  <si>
-    <t>我要订一个五星级的高档的宾馆</t>
-  </si>
-  <si>
-    <t>我要订个豪华型四星级以上的酒店</t>
-  </si>
-  <si>
-    <t>订个度假型三星级左右的酒店</t>
-  </si>
-  <si>
-    <t>我要订一个高档的五星级的宾馆</t>
-  </si>
-  <si>
-    <t>定豪华酒店我要四星级的</t>
-  </si>
-  <si>
-    <t>订商务型酒店我要四星级的</t>
-  </si>
-  <si>
-    <t>订舒适型酒店，我要四星级以下的</t>
-  </si>
-  <si>
-    <t>订高档酒店要4星级左右的</t>
-  </si>
-  <si>
-    <t>帮我订豪华酒店要五星级的</t>
-  </si>
-  <si>
-    <t>帮我订五星级酒店要豪华型的</t>
-  </si>
-  <si>
-    <t>订一间200元左右的提供健身房的房间</t>
-  </si>
-  <si>
-    <t>预定200元左右的有机场大巴的酒店</t>
-  </si>
-  <si>
-    <t>帮我订酒店要价格在200以上的有亲子乐园的</t>
-  </si>
-  <si>
-    <t>订酒店，200元以内的，提供游泳池的</t>
-  </si>
-  <si>
-    <t>要一间200元上下的带游泳池的房间</t>
-  </si>
-  <si>
-    <t>我要一间带游泳池的价格在200元上下的酒店</t>
-  </si>
-  <si>
-    <t>我要一间价格在200元以内的带游泳池的酒店</t>
-  </si>
-  <si>
-    <t>要一间200元以内的带游泳池的房间</t>
-  </si>
-  <si>
-    <t>帮我在附近定一家有健身房的200元以内的宾馆</t>
-  </si>
-  <si>
-    <t>帮我在附近订一下200元左右有健身房的宾馆</t>
-  </si>
-  <si>
-    <t>替我在上海预订酒店，我要有健身房的200元以内的</t>
-  </si>
-  <si>
-    <t>替我在上海预订酒店要有儿童乐园的300元以上的</t>
-  </si>
-  <si>
-    <t>帮我订上海闵行的酒店，要有健身房的200元左右的</t>
-  </si>
-  <si>
-    <t>预订南京的有机场大巴的300元以上的酒店</t>
-  </si>
-  <si>
-    <t>定个青岛的300元以上的有亲子乐园的酒店</t>
-  </si>
-  <si>
-    <t>预订南京带游泳池的300块以内酒店</t>
-  </si>
-  <si>
-    <t>锦江星fsd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2793,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2933,161 +2956,161 @@
         <v>219</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>220</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" t="s">
         <v>221</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>226</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="B15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" t="s">
         <v>230</v>
       </c>
-      <c r="B16" t="s">
-        <v>232</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" t="s">
         <v>233</v>
       </c>
-      <c r="B17" t="s">
-        <v>235</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" t="s">
         <v>236</v>
       </c>
-      <c r="B18" t="s">
-        <v>238</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3478,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -3660,13 +3683,13 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -3702,7 +3725,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -3758,7 +3781,7 @@
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -3772,13 +3795,13 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -3786,7 +3809,7 @@
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
@@ -3800,7 +3823,7 @@
         <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
         <v>42</v>
@@ -3814,13 +3837,13 @@
         <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C26" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3865,13 +3888,13 @@
         <v>151</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -3980,7 +4003,7 @@
         <v>172</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>173</v>
@@ -4036,1235 +4059,1337 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A244"/>
+  <dimension ref="A1:A265"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="G218" sqref="G218"/>
+    <sheetView topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="E257" sqref="E257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>521</v>
+        <v>464</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A256" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" t="s">
         <v>520</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/classes/grammar.xlsx
+++ b/classes/grammar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18300" yWindow="510" windowWidth="6510" windowHeight="11865"/>
+    <workbookView xWindow="18300" yWindow="510" windowWidth="6510" windowHeight="11865" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="corpus" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="536">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +125,6 @@
   </si>
   <si>
     <t>明天北京有雨吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那时候的日子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2390,6 +2386,34 @@
     "type": "testgrammar"
   }
 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx的备忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;时间&gt;的备忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天的备忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那天的风景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那天的风景&lt;{时间@=last}&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那天的风景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2816,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2829,10 +2853,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -2840,277 +2864,277 @@
     </row>
     <row r="2" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
         <v>188</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
         <v>197</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" t="s">
         <v>200</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="B7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
         <v>206</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
         <v>209</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" t="s">
         <v>212</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" t="s">
         <v>215</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" t="s">
         <v>218</v>
       </c>
-      <c r="B12" t="s">
-        <v>219</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" t="s">
         <v>220</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" t="s">
         <v>225</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="B16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="B17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="B18" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" t="s">
         <v>239</v>
       </c>
-      <c r="B20" t="s">
-        <v>240</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" t="s">
         <v>241</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" t="s">
         <v>244</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s">
         <v>247</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="B24" t="s">
-        <v>252</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" t="s">
         <v>255</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3135,322 +3159,322 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
         <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
         <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
         <v>102</v>
-      </c>
-      <c r="B5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
         <v>110</v>
-      </c>
-      <c r="B9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
         <v>112</v>
-      </c>
-      <c r="B10" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" t="s">
         <v>144</v>
-      </c>
-      <c r="B38" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3470,8 +3494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3501,7 +3525,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -3543,7 +3567,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -3554,7 +3578,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -3568,16 +3592,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" t="s">
         <v>182</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>183</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -3591,7 +3615,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -3599,13 +3623,13 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -3613,10 +3637,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>13</v>
@@ -3624,122 +3648,122 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>535</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -3750,69 +3774,69 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>13</v>
@@ -3820,30 +3844,30 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3855,7 +3879,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -3871,184 +3895,212 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -4069,1327 +4121,1327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="183" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="185" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="186" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="187" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="195" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="198" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="199" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="202" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="203" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="207" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="263" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="265" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
